--- a/InputData/Credentials.xlsx
+++ b/InputData/Credentials.xlsx
@@ -27,9 +27,6 @@
     <t>Apple12345</t>
   </si>
   <si>
-    <t>bhoom.n@gmail.com</t>
-  </si>
-  <si>
     <t>hem.pat@gmail.com</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>lana.s@gmial.com</t>
+  </si>
+  <si>
+    <t>bhoom5.p@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -389,12 +389,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -407,7 +407,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -439,10 +439,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
